--- a/database/seeds/2020-06-18 data test/เเฟ้มเจ้าหนี้.xlsx
+++ b/database/seeds/2020-06-18 data test/เเฟ้มเจ้าหนี้.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\megatech\database\seeds\2020-06-18 data test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAB0352-5C97-449C-84E4-C2772BCB418E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878F68B-E63E-4B57-88FB-7162862A1EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B375575-4283-49CE-BC71-E28B5D27A4DA}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0B375575-4283-49CE-BC71-E28B5D27A4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sqltmp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="428">
   <si>
     <t>รหัสเจ้าหนี้</t>
   </si>
@@ -1681,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998AB602-1461-43F1-97EC-D149C602CC2F}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3028,6 +3026,41 @@
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ref="K23:K71" si="9">"'"&amp;A23&amp;"',"</f>
+        <v>'DA0001',</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23:L71" si="10">"'"&amp;B23&amp;"',"</f>
+        <v>'บริษัท เอพิร็อค (ประเทศไทย) จำกัด (Non Active)',</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23:M71" si="11">"'"&amp;C23&amp;"',"</f>
+        <v>'0',</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ref="N23:N71" si="12">"'"&amp;D23&amp;"',"</f>
+        <v>'125 ม.9 นิคมอุตสาหกรรมเวลโกรว์ ถ.บางนา-ตราด กม.36',</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" ref="O23:O71" si="13">"'"&amp;E23&amp;"',"</f>
+        <v>'ต.บางวัว อ.บางปะกง จ.ฉะเชิงเทรา 24130',</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ref="P23:P71" si="14">"'"&amp;F23&amp;"',"</f>
+        <v>'038-562930',</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ref="Q23:Q71" si="15">"'"&amp;G23&amp;"',"</f>
+        <v>'038-562904',</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" ref="R23:R71" si="16">"'"&amp;H23&amp;"');"</f>
+        <v>'');</v>
+      </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
@@ -3054,6 +3087,41 @@
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="9"/>
+        <v>'DC0001',</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ซีเค ทูลส์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="12"/>
+        <v>'99/8 ซ.แจ้งวัฒนะ 1 แขวง ตลาดบางเขน',</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขต หลักสี่   กทม  10210',</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-973-2773',</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-973-2772',</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
@@ -3080,6 +3148,41 @@
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="9"/>
+        <v>'DF0001',</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ฟูจิทูลลิ่ง จำกัด (Non Active)',</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="12"/>
+        <v>'19/315 ม.2 ซ.วิถาวดี 60 ถ.วิภาวดีรังสิต',</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="13"/>
+        <v>'เเขวงบางเขน  เขตหลักสี่   กทม 10210',</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-579-4433',</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-579-8409',</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
@@ -3106,6 +3209,41 @@
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J26" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="9"/>
+        <v>'DG0001',</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท โกรว์ ไวด์ เทคโนโลยี จำกัด (Non Active)',</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="12"/>
+        <v>'10/19  ถ.ราเมศวร  ต.ประตูชัย',</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.พระนครศรีอยุธยา จ.พระนครศรีอยุธยา 13000',</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="14"/>
+        <v>'035-324-046',</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="15"/>
+        <v>'035-245-790',</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
@@ -3132,6 +3270,41 @@
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="9"/>
+        <v>'DG0002',</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ไกรนด์เทค จำกัด (Non Active)',</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="12"/>
+        <v>'99/37 หมู่ 6 ต.ศาลายา',</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.พุทธมณฑล  จ.นครปฐม  73170',</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-441-5481',</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-441-5482',</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
@@ -3158,6 +3331,41 @@
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="9"/>
+        <v>'DG0003',</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท จี.พี.คอมพิวเตอร์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="12"/>
+        <v>'78/228  หมู่ 6 ต.บึงคำพร้อย',</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.ลำลูกกา จ.ปทุมธานี  12150',</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-152-1323',</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-153-1323',</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
@@ -3184,6 +3392,41 @@
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="9"/>
+        <v>'DG0004',</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด จีเอ็ม ลาเบล แอนด์ บาร์โคด ซิสเต็ม',</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="12"/>
+        <v>'1/49 ซ.พระยาสุเรนทร์ 39',</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงสามวาจะวันตก เขตคลองสามวา กทม. 10510',</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="14"/>
+        <v>'081-205-4317',</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
@@ -3210,6 +3453,41 @@
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="9"/>
+        <v>'DI0002',</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท อีสคาร์(ไทยแลนด์) จำกัด',</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="12"/>
+        <v>'57,59,61,63 ซ.สมานฉันท์-บาโบส ถ.สุขุมวิท',</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="13"/>
+        <v>'พระโขนง  คลองเตย  กทม 10110',</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="14"/>
+        <v>'081-6258511',</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
@@ -3236,6 +3514,41 @@
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v>'DJ0001',</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท จัวเยียะ (ไทยแลนด์) จำกัด (Non Active)',</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="12"/>
+        <v>'1588/1 บ้านกลางกรุง ถ.บางนา-ตราด',</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="13"/>
+        <v>'บางนา กรุงเทพฯ 10260',</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-1820581-6',</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-1820587',</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
@@ -3262,8 +3575,43 @@
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="9"/>
+        <v>'DJ0003',</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด จินดาทรัพย์กลการ (Non Active)',</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="12"/>
+        <v>'226/71 ม.6 ถ.ประชาสโมสร ต.ในเมือง',</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.เมืองขอนแก่น จ.ขอนแก่น 40000',</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="14"/>
+        <v>'081-570-4579',</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="15"/>
+        <v>'043-245727',</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -3288,8 +3636,43 @@
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="9"/>
+        <v>'DK0004',</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท กรุงเทพหินเจียร จำกัด (Non Active)',</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="12"/>
+        <v>'59/6 ม.4 ต.บางแก้ว อ.บางพลี',</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="13"/>
+        <v>'จ.สมุทรปราการ 10540',</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-753-5357',</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-703-0300',</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
         <v>141</v>
       </c>
@@ -3314,8 +3697,43 @@
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="9"/>
+        <v>'DK0005',</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท เกรียงกมล 2009 จำกัด (Non Active)',</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="12"/>
+        <v>'44 ถ.เยาวราช แขวงจักรวรรดิ',</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตสัมพันธวงศ์ กรุงเทพฯ 10100',</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-811-7499',</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-811-7475-5',</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -3340,8 +3758,43 @@
       <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="9"/>
+        <v>'DM0003',</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="10"/>
+        <v>'MUSTAFA SIMSEK MAKINE TAKIM',</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="12"/>
+        <v>'FEVZICAKMAK MAH.SILA CAD.',</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="13"/>
+        <v>'NO:46-G/H - 42050 KARATAY KONYA TURKEY',</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="14"/>
+        <v>'332 251 21 78',</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="15"/>
+        <v>'332 251 21 79',</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="2" t="s">
         <v>172</v>
       </c>
@@ -3366,8 +3819,43 @@
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="J36" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="9"/>
+        <v>'DN0001',</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท เอ็น. บี. ที. ซัพพลาย จำกัด (Non Active)',</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="12"/>
+        <v>'120/8 ม.3 ต.บ่อวิน',</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.ศรีราชา จ.ชลบุรี 20230',</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="14"/>
+        <v>'038-337-085-6',</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="15"/>
+        <v>'038-337-087',</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
         <v>178</v>
       </c>
@@ -3392,8 +3880,43 @@
       <c r="H37" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="9"/>
+        <v>'DN0002',</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท เอ็นที.พาร์ท จำกัด  (Non Active)',</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="12"/>
+        <v>'26/176 ซ.ประเสริฐมนูกิจ 39 แขวงนวลจันทร์',</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตบึงกุ่ม กรุงเทพฯ 10230',</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-946-6394',</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-519-3247',</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="2" t="s">
         <v>184</v>
       </c>
@@ -3418,8 +3941,43 @@
       <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="9"/>
+        <v>'DO0001',</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท โอนิอินเตอร์เทรด จำกัด (Non Active)',</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="12"/>
+        <v>'18/34 ม.7 ถ.บางนา-ตราด กม.17.5',</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="13"/>
+        <v>'ต.บางโฉลง อ.บางพลี จ.สมุทรปราการ 10540',</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-750-8525',</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-750-8526',</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="2" t="s">
         <v>197</v>
       </c>
@@ -3444,8 +4002,43 @@
       <c r="H39" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0002',</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท พีทีพี คอร์ปอเรชั่น จำกัด (Non Active)',</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="12"/>
+        <v>'89/391 หมู่6 ตำบลบ่อวิน อำเภอศรีราชา',</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="13"/>
+        <v>'จังหวัดชลบุรี  20230',</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="14"/>
+        <v>'038-346019',</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="15"/>
+        <v>'038-346019',</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
         <v>202</v>
       </c>
@@ -3470,8 +4063,43 @@
       <c r="H40" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0003',</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท แปซิฟิก เมอร์คิวรี่ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="12"/>
+        <v>'32 ซ.ลาดพร้าววังหิน67 ถ.ลาดพร้าววังหิน แขวงลาดพร้าว',</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตลาดพร้าว กรุงเทพมหานคร 10230',</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="14"/>
+        <v>'025397989',</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="15"/>
+        <v>'025383945',</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
         <v>208</v>
       </c>
@@ -3496,8 +4124,43 @@
       <c r="H41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0004',</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท พลัสแม็กซ์ ออโตเมชั่น จำกัด (Non Active)',</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="12"/>
+        <v>'289 ซ.จรัญสนิทวงศ์ 44 ถ.จรัญสนิทวงศ์',</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงบางยี่ขัน เขตบางพลัด กรุงเทพมหานคร 10700',</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-235-3295-8',</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-235-3299',</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
         <v>214</v>
       </c>
@@ -3522,8 +4185,43 @@
       <c r="H42" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0005',</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด พีเค ไม้ฟิตติ้ง  (Non Active)',</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="12"/>
+        <v>'147 ถ.ราชมรรคา ต.สนามจันทร์',</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.เมือง จ.นครปฐม 73000',</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="14"/>
+        <v>'096-5945539',</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="15"/>
+        <v>'034-275228',</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
         <v>220</v>
       </c>
@@ -3548,8 +4246,43 @@
       <c r="H43" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0006',</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="10"/>
+        <v>'ร้านเป็นเอก  (Non Active)',</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="12"/>
+        <v>'ตลาดธนบุรี สนามหลวง2 ถ.เลียบคลองทวีวัฒนา',</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงทวีวัฒนา เขตทวีวัฒนา กรุงเทพมหานคร 10170',</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="14"/>
+        <v>'087-067-1949',</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="2" t="s">
         <v>225</v>
       </c>
@@ -3574,8 +4307,43 @@
       <c r="H44" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v>'DP0007',</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท พาร์ท แฟคตอรี่ โทเทิ้ล กรุ๊ป จำกัด (Non Active)',</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="12"/>
+        <v>'406/28 ถ.สามัคคี ต.ท่าทราย',</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.เมืองนนทบุรี จ.นนทบุรี 11000',</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="14"/>
+        <v>'',</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="2" t="s">
         <v>236</v>
       </c>
@@ -3600,8 +4368,43 @@
       <c r="H45" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v>'DQ0001',</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด ควอลิเทค อิควิปเม้นท์ (Non Active)',</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="12"/>
+        <v>'70/175 ม.5 ถ.ลำลูกกา ต.บึงคำพร้อย',</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.ลำลูกกา จ.ปทุมธานี 12150',</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-532-7363',</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-532-6526',</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
         <v>249</v>
       </c>
@@ -3626,8 +4429,43 @@
       <c r="H46" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0002',</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด ศิลป์ไฟฟ้าไทยอุตสาหกรรม (Non Active)',</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="12"/>
+        <v>'97/3  ซ.นาคสุวรรณ  ถ.นนทรี',</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงช่องนนทรี เขตทยานนาวา   กรุงเทพ 10120',</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="14"/>
+        <v>' 02-284-1597',</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-681-689',</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="2" t="s">
         <v>255</v>
       </c>
@@ -3652,8 +4490,43 @@
       <c r="H47" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="J47" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0003',</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท เอสอี เพอร์เฟค วัน จำกัด (Non Active)',</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="12"/>
+        <v>'118/17  ม.1 ต.ลำไทร',</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.วังน้อย จ.พระนครศรีอยุธยา  13170',</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="14"/>
+        <v>'035-740-833',</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="15"/>
+        <v>'035-740-834',</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="2" t="s">
         <v>261</v>
       </c>
@@ -3678,8 +4551,43 @@
       <c r="H48" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="J48" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0004',</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท สยาม แมคคาทรอนิค จำกัด (Non Active)',</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="12"/>
+        <v>'644 ซ.ลาซาล แขวงบางนา',</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตบางนา กรุงเทพมหานคร 10260',</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-3985537',</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-3993786',</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
         <v>281</v>
       </c>
@@ -3704,8 +4612,43 @@
       <c r="H49" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J49" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0007',</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="10"/>
+        <v>'คุณสะอาด ไปล่โสภน (Non Active)',</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="12"/>
+        <v>'60/128 ม.3 ต.คลองสวนพลู อ.พระนครศรีอยุธยา',</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="13"/>
+        <v>'จ.พระนครศรีอยุธยา 13000',</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="14"/>
+        <v>'083-7145173',</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="2" t="s">
         <v>286</v>
       </c>
@@ -3730,8 +4673,43 @@
       <c r="H50" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="J50" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0008',</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท สยามมิตโต โปรดักส์ พาร์ท จำกัด (Non Active)',</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="12"/>
+        <v>'75/31 ม.1 ต.หนองซ้ำซาก อ.บ้านบึง จ.ชลบุรี 20170',</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="13"/>
+        <v>'',</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="14"/>
+        <v>'',</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="2" t="s">
         <v>289</v>
       </c>
@@ -3756,8 +4734,43 @@
       <c r="H51" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="J51" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0009',</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="10"/>
+        <v>'ส.ศิริออโต้ (Non Active)',</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="12"/>
+        <v>'201/960 ม.1 ซ.เอ็มไทย2 ถ.เทพารักษ์',</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="13"/>
+        <v>'ต.บางเสาธง อ.บาเสาธง จ.สมุทรปราการ 10540',</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="14"/>
+        <v>'089-982-6192',</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
         <v>301</v>
       </c>
@@ -3782,8 +4795,43 @@
       <c r="H52" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="J52" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="9"/>
+        <v>'DS0011',</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="10"/>
+        <v>'S.A.U. S.p.A.',</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="12"/>
+        <v>'Via Dei Raseni,6/B',</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="13"/>
+        <v>'41040 Polinago, Modena, Italy',</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="14"/>
+        <v>'0039-0536-47510',</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="15"/>
+        <v>'0039-0536-47275',</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
         <v>314</v>
       </c>
@@ -3808,8 +4856,43 @@
       <c r="H53" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="J53" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0001',</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ทูลลิ่ง เซอร์วิส เซ็นเตอร์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="12"/>
+        <v>'202/655-565 ซ.สุภาพงษ์2 แขวงหัวหมาก',</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตบางกะปิ กรุงเทพมหานคร 10240',</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-370-4929-35',</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-376-2527',</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
         <v>327</v>
       </c>
@@ -3834,8 +4917,43 @@
       <c r="H54" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0003',</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ทูล ลิงค์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="12"/>
+        <v>'88 อาคารเอ.พี.นครินทร์ ชั้น14 ซ.ลาซาล58',</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="13"/>
+        <v>'ถ.ศรีนครินทร์ บางนา กทม 10260',</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-748-7070-1',</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-748-7072',</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
         <v>333</v>
       </c>
@@ -3860,8 +4978,43 @@
       <c r="H55" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="J55" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0004',</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="10"/>
+        <v>'Tool-Flo Manufacturing Inc.',</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="12"/>
+        <v>'14745 Kirby DR',</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="13"/>
+        <v>'Houston, TX 77047',</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="14"/>
+        <v>'+1 713 941 1080',</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="15"/>
+        <v>'+1 800 342 0992',</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="2" t="s">
         <v>339</v>
       </c>
@@ -3886,8 +5039,43 @@
       <c r="H56" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="J56" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0005',</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ต้าเหรียญ อินดัสทรีส์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="12"/>
+        <v>'29/11 ม.7 แขวงศาลาธรรฒสพน์',</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตทวีวัฒนา กทม. 10170',</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-889-7338',</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-889-6823',</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
         <v>345</v>
       </c>
@@ -3912,8 +5100,43 @@
       <c r="H57" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="J57" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0006',</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด ที.ดี.อีควิปเม้นท์ (1997) (Non Active)',</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="12"/>
+        <v>'136/17 ซ.แม้นศรี 1 ถ.บำรุงเมือง แขวงคลองมหานาค',</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตป้อมปราบศัตรูพ่าย กรุงเทพมหานคร 10100',</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-225-7343',</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-2257343',</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="2" t="s">
         <v>351</v>
       </c>
@@ -3938,8 +5161,43 @@
       <c r="H58" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J58" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0007',</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="10"/>
+        <v>'ไทยอควาเรี่ยมเซ็นเตอร์ (Non Active)',</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="12"/>
+        <v>'ตลาดปลาสวยงาม JJ MALL ห้อง B01',</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="13"/>
+        <v>'กทม 10150',</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="14"/>
+        <v>'086-700-4515',</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="2" t="s">
         <v>356</v>
       </c>
@@ -3964,8 +5222,43 @@
       <c r="H59" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="J59" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0008',</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ทองพูน เอ็นจิเนียริ่ง จำกัด (Non Active)',</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="12"/>
+        <v>'34 ซ.สุขสวัสดิ์13 แยก12',</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงบางปะกอก เขตราษฎร์บูรณะ กทม. 10140',</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="14"/>
+        <v>'084-6652496',</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="2" t="s">
         <v>361</v>
       </c>
@@ -3990,8 +5283,43 @@
       <c r="H60" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="J60" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0009',</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ไทยพัฒนสิน (จิ้นเส็ง) จำกัด (Non Active)',</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="12"/>
+        <v>'13 ถ.ราชพฤกษ์ ตลิ่งชัน',</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="13"/>
+        <v>'กรุงเทพฯ 10170',</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-408-8710',</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-408-8719-20',</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="2" t="s">
         <v>367</v>
       </c>
@@ -4016,8 +5344,43 @@
       <c r="H61" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="J61" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0010',</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ทูลเน็ท (ไทยแลนด์) จำกัด',</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="12"/>
+        <v>'52/171 ซ.กรุงเทพกรีฑา แขวงสะพานสูง',</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตสะพานสูง กทม. 10240',</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-736-2381-4',</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-7362385',</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="2" t="s">
         <v>373</v>
       </c>
@@ -4042,8 +5405,43 @@
       <c r="H62" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="J62" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0011',</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ทูลลิ่ง เอ็กแซ็กท์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="12"/>
+        <v>'261/15 ม.2 ต.บางเพรียง อ.บางบ่อ จ.สมุทรปราการ 10560',</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="13"/>
+        <v>'',</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-7085721-3',</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-7085724',</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
         <v>378</v>
       </c>
@@ -4068,8 +5466,43 @@
       <c r="H63" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="J63" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0012',</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท เทียนสุภา อินเตอร์เทรด จำกัด (Non Active)',</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="12"/>
+        <v>'1938 ถ.ข้าวหลาม แขวงตลาดน้อย',</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตสัมพันธวงศ์ กรุงเทพฯ 10100',</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-236-4765',</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-639-4238',</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
         <v>383</v>
       </c>
@@ -4094,8 +5527,43 @@
       <c r="H64" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="9"/>
+        <v>'DT0013',</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด ที. เอ็ม. ทูลลิ่ง',</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="12"/>
+        <v>'28 ซ.ลาซาล 65 ถ.สุขุมวิท 105 แขวงบางนา',</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตบางนา กรุงเทพมหานคร 10540',</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-7525214-5',</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-7525216',</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="2" t="s">
         <v>389</v>
       </c>
@@ -4120,8 +5588,43 @@
       <c r="H65" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="9"/>
+        <v>'DU0001',</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ยูไนเต็ดทังสเตน จำกัด (Non Active)',</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="12"/>
+        <v>'15/5 หมู่ที่ 1 ตำบลคลองอุดมชลจร',</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="13"/>
+        <v>'อำเภอเมือง จังหวัดฉะเชิงเทรา 24000',</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="14"/>
+        <v>'038-090-650',</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="15"/>
+        <v>'038-090-659',</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="2" t="s">
         <v>395</v>
       </c>
@@ -4146,8 +5649,43 @@
       <c r="H66" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="J66" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="9"/>
+        <v>'DW0001',</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ดับบลิว.เค มัลติทูลส์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="12"/>
+        <v>'100/7  หมู่ 8 ต.บางเมือง',</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.เมืองสมุทรปราการ จ.สมุทรปราการ 10270',</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-383-5804',</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-383-5799',</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="2" t="s">
         <v>401</v>
       </c>
@@ -4172,8 +5710,43 @@
       <c r="H67" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="J67" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="9"/>
+        <v>'DW0002',</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท วราคณะ จำกัด  (Non Active)',</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="12"/>
+        <v>'20 ม.1 ถ.สุขุมวิท ต.เมืองใหม่',</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="13"/>
+        <v>'อ.เมืองสมุทรปราการ จ.สมุทรปราการ 10270',</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-757-8537-8',</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="15"/>
+        <v>'027578539',</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
         <v>406</v>
       </c>
@@ -4198,8 +5771,43 @@
       <c r="H68" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="J68" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="9"/>
+        <v>'DW0003',</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท วุฒิ ฮาร์ดแวร์ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="12"/>
+        <v>'70 ซ.บรมราชชนนี 64 ถ.บรมราชชนนี',</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="13"/>
+        <v>'แขวงศาลาธรรมสพน์ เขตทวีวัฒนา กทม 10170',</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-8884205',</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-8883427',</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="2" t="s">
         <v>412</v>
       </c>
@@ -4224,8 +5832,43 @@
       <c r="H69" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="9"/>
+        <v>'DX0001',</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="10"/>
+        <v>'ห้างหุ้นส่วนจำกัด เอ๊กซ์วีเอ็น พรีซิชั่น พาร์ท (Non Active)',</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="12"/>
+        <v>'1/45 ม.1 ต.หนองรี อ.เมืองชลบุรี จ.ชลบุรี 20000',</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="13"/>
+        <v>'',</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="14"/>
+        <v>'',</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="15"/>
+        <v>'',</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="2" t="s">
         <v>415</v>
       </c>
@@ -4250,8 +5893,43 @@
       <c r="H70" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="J70" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="9"/>
+        <v>'DY0001',</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="10"/>
+        <v>'YAMAZEN (THAILAND) CO., LTD (Non Active)',</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="12"/>
+        <v>'1230 and 1230/1 Rama 9 Road, Kwang Suanluang',</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="13"/>
+        <v>'Khet Suanluang, Bangkok 10250, Thailand.',</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-3742214',</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-3741482',</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="2" t="s">
         <v>421</v>
       </c>
@@ -4275,6 +5953,41 @@
       </c>
       <c r="H71" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="9"/>
+        <v>'DY0002',</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="10"/>
+        <v>'บริษัท ยี้ซิง แมชชีนเนอรี่ จำกัด (Non Active)',</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="11"/>
+        <v>'0',</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="12"/>
+        <v>'17 ถ.พระราม2 แขวงท่าข้าม',</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="13"/>
+        <v>'เขตบางขุนเทียน กรุงเทพมหานคร 10150',</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="14"/>
+        <v>'02-4158964-5',</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="15"/>
+        <v>'02-4165464',</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="16"/>
+        <v>'');</v>
       </c>
     </row>
   </sheetData>
